--- a/500all/speech_level/speeches_CHRG-114hhrg25103.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25103.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412271</t>
   </si>
   <si>
-    <t>Mike Coffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Coffman. Good afternoon. This hearing will come to order. I want to welcome everybody to today's hearing entitled ``Persian Gulf War: An Assessment of Health Outcomes on the 25th Anniversary.''    First, as a preliminary matter, I would like to ask unanimous consent that--let's see. Who do we have? Oh, I guess they're not here. I don't have to do that.</t>
   </si>
   <si>
     <t>412557</t>
   </si>
   <si>
-    <t>Ann M. Kuster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kuster. The answer is yes.</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Denham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Denham. I get my own card.</t>
   </si>
   <si>
@@ -97,45 +88,30 @@
     <t xml:space="preserve">    Mr. Coffman. Very well. Sit down. Please be seated. And let the record reflect that all witnesses have answered in the affirmative.    Dr. Clancy, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Clancy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Clancy. Thank you. Good afternoon, Chairman Coffman, Ranking Member Kuster, Members of the Subcommittee, Representative Denham. I'm accompanied today by Dr. Stephen Hunt, director of our Post-Deployment Integrated Care Initiative. As Deputy Under Secretary for Organizational Excellence and an internist, my background has been conducting and supporting research to improve patient care and inform public policy for much of my career. So I know how important it is to get the science right and assure you that VA is taking every step possible to advance research, clinical care, and education on Gulf War illness.    Since our last hearing in 2013, VA has funded or conducted over 60 studies. Funding for Gulf War research has increased steadily from $5.6 million in 2011 to over $14 million this year. And that's a very conservative estimate. For example, a study funded this past June is a randomized trial of something called CoQ10 thought to change subcellular function in a way that could help treat the effects of Gulf War illness. Other studies evaluate the effectiveness of a broad range of treatments for musculoskeletal pain, fatigue, and cognitive issues using exercise programs, magnetic stimulation, and other innovative approaches. So, as we look for promising interventions through research, VA is also working diligently to treat these veterans that are now suffering from Gulf War illness.    From 2000 to 2015 the percentage of Gulf War veterans enrolled in our system has increased from 13 percent to about 33 percent. We offer continuing evaluation and treatment to the over 700,000 men and women who served in Operations Desert Shield and Desert Storm. We have centers of excellence, three of them, called War Related Injury and Illness Study Centers, or WRIISCs--and we want to express our appreciation to the Congress for these--which are charged with conducting cutting-edge research, clinical education, and providing specialized care for Gulf War veterans with complex chronic unexplained or very difficult-to-diagnosis conditions. And demand for their services is no surprise; as the number of Gulf War veterans has increased, demand for these services has also increased.    In addition, a total of 145,000 Gulf War veterans have undergone a Gulf War registry exam allowing their health concerns to be evaluated by VA physicians and enabling them to be referred for additional care. We first learned from Gulf War veterans just how important it is to integrate all the care and services that veterans need, and to integrate and organize that around the veteran and the veteran's needs. And, in fact, that became an organizing principle for much of our system and team-based primary care. And, in fact, that has helped us to organize our referrals to community providers when necessary as well.    We know that many Gulf War veterans are affected by a debilitating cluster of medically unexplained chronic symptoms that can include fatigue, headaches, joint pain, indigestion, insomnia, dizziness, respiratory disease, memory problems. And the chronic multisymptom illness we see so often in Gulf War veterans is clearly not a psychological condition. So I want to be very clear on that. We're committed to ensuring our research, clinical care, and education takes into account all of the factors that are relevant to returning that veteran to the highest level of function. We have aggressively pursued and fast-tracked studies in ways we can meet the research and treatment needs for all veterans that have been affected by environmental exposures. So that research serves two purposes. One is to improve clinical care that we're providing now for those enrolled in our system. And the other is as the basis for presumptions or other benefits. Our philosophy has been to come down on the side of the veteran when the science supports it. And, as you've seen, we have made our policies more liberal for C123 crews and are now adding new presumptives for veterans who served at Camp Lejeune. In addition, we've been working with Ron Brown at the National Gulf War Resource Center to address a number of concerns and possible presumptions for Gulf War veterans.    Going forward, we recognize that while we've learned a lot, we need and value the ongoing feedback and input from our stakeholders, this committee of course, the Research Advisory Committee, the Veterans Service Organizations, and, very importantly, Gulf War veterans themselves.    As we conduct an in-depth review of the most recent Institute of Medicine report, we're going to include 2 full days to receive public comments and feedback from our stakeholders and partners to assure that VA's priorities are informed by veterans and stakeholders.    You know, vigorous disagreements in science are part of the landscape, and we welcome that at all times. That's what moves science forward. And we're committed to hearing from all sides.    That concludes my testimony. My colleague and I look forward to answering your questions that you or the Committee may have.    [The prepared statement of Carolyn Clancy, M.D. appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Dr. Clancy.    Dr. Cory-Slechta, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Cory-Slechta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Cory-Slechta. Good afternoon. Is this on?    I am Deborah Cory-Slechta, professor of environmental medicine, pediatrics, and public health sciences, and acting chair of the Department of Environmental Medicine at the University of Rochester School of Medicine. I served as chair of the ``Committee on Gulf War and Health, Volume 10,'' which was released February 11 of this year. The committee that I was chaired was asked to review and evaluate the scientific and medical literature regarding associations between illness and exposure to toxic agents, environmental or wartime hazards, or preventative medicines or vaccines associated with Gulf War service, paying particular attention to neurological disorders, including Parkinson's, MS, ALS, and migraines, to cancer, particularly brain cancer and lung cancer, and chronic multisymptom illness, also known as Gulf War illness. Volume 10 updates two earlier Gulf War and Health reports: volume 4, in 2006, and volume 8, that was published in 2010.    The committee made recommendations for future research on Gulf War veterans. And I would note that this committee was composed of experts in neurology, epidemiology, pain, psychiatry, neurocognitive disorders, environmental health, and toxicology. And they were clinicians and researchers, none of whom received funding from Gulf War illness research programs.    Volume 10 basically followed the approach used by earlier committees. We held two public sessions at which we heard from representatives of the VA, from Gulf War veterans, and Veterans Service Organizations, Gulf War researchers, and representatives of the VA Research Advisory Committee. We did not address policy issues such as service-connection, compensation or the cause of or treatment for Gulf War illness. We conducted an extensive literature search, reviewed the volumes 4 and 8 conclusions, as well as their primary and secondary studies. We also looked at animal toxicology, neuroimaging, and genetics. We tried to be totally inclusive. We divided our studies into primary studies. They had to be published in peer-reviewed journals demanding--or demonstrating reporting rigorous methods, including information on a persistent, not acute, health outcomes, used appropriate laboratory testing as applicable, and had a study population that was generalizable to and representative of the Gulf War population.    Secondary studies were those studies that didn't meet all of these criteria. Many of the secondary studies relied on self-reports of diagnoses rather than examination by a health professional or a medical record review. We used the same categories of association that were used in the previous volumes. I won't go through all those. Suffice it to say, we have a sufficient evidence of a causal relationship, sufficient evidence of an association, limited suggestive evidence of an association, inadequate insufficient evidence or limited suggestive evidence of no association.    The committee found that in spite of many millions of dollars that have been spent on researching the health of Gulf War veterans, there has been little substantial progress in our understanding of their health, particularly of Gulf War illness. The volume 10 committee found little evidence to actually warrant changes to the volume 8 conclusions. We fundamentally agree with the volume 8 conclusions regarding the strength of the associations between deployment to the Gulf War and adverse health outcomes. Veterans who were deployed to the Gulf War have an increased risk for many long-term health conditions with--including PTSD, Gulf War illness, chronic fatigue syndrome, functional GI conditions, generalized anxiety disorder, depression, and substance abuse. And in the testimony that I've provided you, you can see our categories of association with different health effects summarized in box 1.    As requested in its statement of tasks, the committee had additional discussions pertaining to Gulf War illness, specifically neurologic conditions, and lung and brain cancer, as well as Gulf War illness itself. So Gulf War illness, of course, is the signature adverse health outcome of having served in the Persian Gulf. Multiple studies have found that some Gulf War veterans, regardless of their country of origin and their different deployment-related exposures, have persistent debilitating and varying symptoms of Gulf War illness. In spite of over two decades of research to define, diagnose, and treat Gulf War illness, little progress has actually been made in elucidating the pathophysiological mechanisms that underlie it, the exposures that may have caused it, or the treatments that are generally effective for it.    Gulf War illness is not an easily diagnosed condition. The committee concluded it is not a psychosomatic illness, but it does, like almost every disease and disorder that we know of, prevent--present with diverse systems, many of which overlap with other health conditions such as chronic fatigue, neurodegenerative disorders, and musculoskeletal.    The committee concluded that, although the existence of an animal model would be advantageous for identifying and evaluating treatment strategies, we caution that developing an animal model is really precluded by the absence of any objective measures of chemical and nonchemical exposures during Gulf War service, let alone the frequency, duration, or dose of those exposures, or the highly likely interactive effects of multiple exposures, about which we know almost nothing. We found it unlikely that a single definitive causal agent will be identified in the many years--this many years after the war. Furthermore, many of the Gulf War studies have excluded the psychological aspects of the condition with regard to both diagnosis and treatment, although veterans report symptoms, such as chronic pain and sleep disturbances, that may be amenable to psychological therapies alone or in conjunction with other treatments.    We found new--little new information pertaining to MS, Parkinson's, or Alzheimer's disease, or migraines. We did recommend that ALS is the only neurologic disease for which we did find limited suggestive evidence for an association. But because the timeframe has been too short to really look at this, we recommended additional followup for prevalence of ALS in this population.    Similarly, we found evidence for brain cancer to be inadequate, insufficient, and it found--we found no statistically significant increase in the current risk of brain concern in deployed Gulf War veterans compared to nondeployed counterparts. A finding that's actually mirrored in another recent IOM study.    With regard to lung cancer, there--in the 10 to 15 years follow-up that have been reported may not, again, like ALS, have been adequate--an adequate timeframe to really see whether in fact--</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Dr. Slechta, I'm going to have to ask you to move along, simply because you're at 7 minutes right now.</t>
   </si>
   <si>
-    <t>Cory-Slechta [continued]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Cory-Slechta [continued]. Sorry. Okay.    In conclusion, what is striking about this and prior Gulf War and Health Committee's finding is that--well, I'll just skip to the end.    Let me just quickly go through these.    Recognize the connections and complex relations between brain and physical functioning and do not exclude any aspect of Gulf War illness. With respect to improving its diagnosis and treatment, the Department of Veterans Affairs and Department of Defense should develop a joint and cohesive strategy on incorporating emerging diagnostic technologies, personalized approaches to medical care into sufficiently powered future research to inform the studies. I would also say, in regards to what I heard before, the importance of biomonitoring of exposures before, during, and after military--the involvement in the military is going to be critical to ultimately providing any associations to chemical exposures. There need to be follow-up for neurodegenerative diseases that have long latencies and are associated with aging, as I mentioned before. And let's see. Without definitive and verifiable individual veteran exposure information, further studies to determine cause and effect relationship between Gulf War chemical exposures and health conditions in Gulf War veterans should not be undertaken. We did come up with a list of outcomes where we believe that there are sufficient data already to suggest an association, that we don't need to do more studies to redemonstrate those, somewhere, 25 years after the war, we're not likely to see anything, and so some of those kinds of health conditions didn't warrant follow-up, as well as some that we said had a longer latency and still needed to be considered.    And, finally, one other thing was to begin to break out sex-specific and race/ethnicity-specific health information, which may be important not only to understanding different vulnerabilities by sex and race but also in terms of understanding mechanisms and treatment for disease.    Thank you. And I'm sorry for going over time.    [The prepared statement of Deborah Cory-Slechta appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Dr. Slechta.    Dr. White, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>White</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. White. Chairman Coffman, Ranking Member Kuster, and Members of the House Veterans Affairs Subcommittee on Oversight and Investigations, it's the 25th anniversary of the Gulf War. Our veterans won this conflict in less than a week. However, concern remains high that the troops who produced this victory are and will remain ill without legitimate acknowledgement of their health problems and associated disabilities and without effective treatment options now or in the future.    Despite decades of scientific evidence to the contrary, the VA and the Institute of Medicine have recently produced documents that minimize the poor health of these veterans by terming their illnesses to be functional, a medical term for psychiatric illness. This injustice is then compounded by a VA treatment guideline that suggests ineffective, unproven, palliative, and potentially harmful treatments for Gulf War illness that focus on psychiatric symptomatology. I speak as a clinician scientist who has worked with ill Gulf War veterans clinically and in research for over 20 years. My work on Gulf War illness is part of a 35-year career in which I have studied the effects of exposures to neurotoxic chemicals in adults and children. For 8 years, until last fall, I served as scientific director of the Research Advisory Committee on Gulf War Veterans' Illnesses. It has been known since a year or two after their return from the Gulf that a subset of Gulf War veterans was experiencing debilitating physical illness. Research beginning at that time and continuing to the present has produced a consensus of scientific knowledge about this illness that I will summarize briefly.    First, dozens of studies in multiple countries reveal that approximately 30 percent of the 1991 Gulf War veteran population suffers from a characteristic pattern of physical health symptoms that we call Gulf War illness. This pattern of health symptoms is not seen in veterans of other conflicts.    Second, this illness is not the result of stress or other psychiatric factors. Rates of post-traumatic stress disorder are typically less than 10 percent. Furthermore, rates of Gulf War illness are not significantly higher in Gulf War veterans with psychiatric diagnoses.    Third, Gulf War illness is associated with exposures to chemicals present in theatre, especially pesticides and pyridostigmine bromide, and possibly nerve gas sarin and particulates from the oil well fires.    Fourth, effective treatments for Gulf War illness and other disorders that are induced by chemical exposures that damage the brain do not exist at present. However, recent research has identified treatment options that target specific nervous system and immunological mechanisms of Gulf War illness. These treatments are now being piloted. Despite these treatment advances, new recommendations for treatment of Gulf War illness from VA emphasize immediate referral for mental health evaluation. In addition, cognitive behavioral therapy is suggested. This is a palliative treatment at best and has been shown to be minimally effective in VA research on Gulf War veterans.    Even worse, the treatment guidelines recommend 11 drugs to treat Gulf War illness, 10 of them psychiatric. All 11 drugs are noted in the guidelines to have significant adverse side effects, including suicidal ideation. And these medications have not been studied with regard to their effectiveness in the treatment of Gulf War illness. The recent volume 10 Institute of Medicine report further contributes to this situation by minimizing the health problems of Gulf War veterans and again placing a psychiatric cast on them. Although the volume 10 IOM report states that the science has not changed since the volume 8 report, its conclusions fly in the face of the scientific consensus on Gulf War illness that I have described. The volume 8 report concluded that Gulf War illness cannot be reliably ascribed to any known psychiatric disorder. The volume 10 report distorts and disavows this conclusion by saying that the illness cannot be fully explained by any psychiatric disorder. Unlike prior reports that support mechanistic scientific research on Gulf War illness, volume 10 suggests that it is time research efforts focus on mind/body connectedness, and that further research to determine the relationships between Gulf War exposures and health conditions in Gulf War veterans should not be undertaken. To recommend stopping research into the mechanisms underlying the disease just as research into these mechanisms has begun to make real progress is shockingly shortsighted. And to suggest that psychiatric research has been neglected could not be further from the truth.    During the first 15 years after the war, Federal Gulf War research focused mainly on psychiatric issues with negative results. It is unthinkable that the scientific progress now being made should be halted by a return to the psychogenic era.    Thank you.    [The prepared statement of Roberta F. White appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Dr. White.    Mr. Hardie, you're now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Hardie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hardie. Thank you, Mr. Chairman, and Ranking Member and Members of this Committee for your service, for this hearing, and for the opportunity to speak with you today.    This is just a brief overview. There are more details in my written submission. I really hope that you'll take the time to read the few pages of it.    I'm Anthony Hardie, a 1991 Gulf War and Somalia veteran. I'm director of the Veterans for Common Sense, and while I've provided testimony on several occasions, today is especially notable. Exactly 25 years ago tonight, we launched the ground war of Operation Desert Storm and successfully liberated Kuwait. Tonight, I would like to--for us to remember and honor the nearly 300 warriors who made the ultimate sacrifice. I would also like us to remember and honor our Gulf War veterans, including those in this room and watching, and our leaders who led us to decisive military victory.    Our war was relatively short, but you've heard our stories before. And with one-fourth and one-third of us coming home with serious and debilitating health issues now known as Gulf War illness, we faced a new battle: a long war to obtain health care, effective health care, and VA assistance from entrenched government officials who seemed intent on minimization and denial at every turn. Even through to today, the VA describes our toxic wounds as medically unexplained. And, finally, in 1998, we won enactment of two landmark bills for Gulf War veterans to guarantee health care and benefits based on research. Yet from the beginning, VA officials circumvented their implementation that leads us to today.    The Institute of Medicine recently released its final report on the Gulf War and Health series under VA contract as directed by the 1998 legislation. It's highly problematic. As I walked through the airport on my way home from the report's release, the weight of the bag with nearly two decades of these IOM reports was heavy on my shoulder. And I want to show that weight.    My heart was even heavier because their collective weight has added little to nothing for Gulf War veterans. It has not associated any of our exposures with our health issues, and has added little towards the development of effective evidence-based treatments for Gulf War illness. The real weight is being borne by Gulf War illness--Gulf War veterans who are suffering from Gulf War illness. This new report recommends no further research using animal models of Gulf War toxic exposures, which amounts to rolling up the sidewalk on this promising avenue of Gulf War illness research just when it's beginning to unravel the underlying mechanisms of Gulf War illness and point to treatment targets. And these new--and this now affects not just non-VA CDMRP research, but VA research as well. In one section, it points out that the VA hasn't reported critical data, but in other, recommends ending research on a long list of health conditions, despite long histories of them in Gulf War veterans not reported by VA. While acknowledging Gulf War illness is a 1991 Gulf War signature condition, there were no Gulf War illness researchers on this panel. It recommends a shift to brain/body interconnectedness that departs from the scientific opinion that effective treatments, cures, and--it is hoped--preventions can likely be found. Instead, this is more like the 1990s, when VA and DoD officials, some of whom are involved in writing this report, denied Gulf War veterans toxic exposures, denied benefits, and failed to develop treatments or preventions. And now VA and DoD have developed a clinical practice guideline that goes back to the very darkest days of the 1990s, authored by some of these same old names and ideas.    Despite VA public statements to the contrary, including to this Committee, this guide for VA and DoD doctors is filled with references to psychosomatic and somatoform disorders; 52 times, to be exact. Its primary recommendations for Gulf War illness are cognitive behavioral therapy or talk therapy, exercise, and psychotropic drugs. Suicidal ideation is listed in the guide as a notable adverse effect for every single one of those medications at a time when we have a suicide crisis amongst veterans. VA has active Gulf War veteran studies on CBT and exercise, but somehow still recommends them as evidence-based in this definitive guide. Twenty-five years after our war, VA has circumvented most of the aims of the 1998 laws intended to help us. In addition to the above, VA lost its registry--lost its registry--for Gulf War spouses and children; ignored and then gutted the Gulf War Research Advisory committee; misleads Congress in its reports to Congress; found no link between Gulf War exposures in Congress, including in these manuals; identified almost no new presumptives. If we measure VA's success by how it's improved Gulf War veterans health 25 years after the war, VA still has not a single evidence-based treatment for Gulf War illness. Others among us have died of ALS, brain cancer, and suicide. And only since the Congressionally Directed Medical Research Program was enacted through the support of many on this committee has VA even begun to look at developing treatments. And while there is real research progress, most of it is being made outside of and in spite of VA in the CDMRP, thanks to many of your support. Twenty-five years later, one-fourth to one-third of us Gulf War veterans continue to struggle with the health and life effects of Gulf War illness. We must not allow--we must not continue to allow VA and DoD to substitute risk communication for evidence-based health care, psychosomatic drugs for treatment-focused research, spin for substance, or don't look/don't find for the objective collection analysis and reporting of deployment health outcomes. The letter, the spirit, and the intent of the 1998 Persian Gulf War laws that we fought so hard to win have yet to be achieved.    And, again, this is just a brief overview. On this 25th anniversary of the Gulf War, our Gulf War veterans deserve the very best that modern science and the U.S. Government can offer to improve their health and lives.    Mr. Chairman, as one of our Gulf War veterans and Members of this powerful Committee, please join together and with your colleagues on both sides of the aisle and in both Houses and help fix these serious issues once and for all. My fellow Gulf War veteran David Winnett and I look forward to your questions. Thank you, again, for this opportunity.    [The prepared statement of Anthony Hardie appears in the Appendix]</t>
   </si>
   <si>
@@ -184,9 +160,6 @@
     <t xml:space="preserve">    Mr. Hardie. So, sir, it was an anti-nerve-agent prophylactic--</t>
   </si>
   <si>
-    <t>Coffman [continued]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Coffman [continued]. Nerve agent. Okay.</t>
   </si>
   <si>
@@ -229,9 +202,6 @@
     <t>412310</t>
   </si>
   <si>
-    <t>David P. Roe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Roe. Thank you, Mr. Chairman. And for the group here, I don't know whether you know or not, but I've sponsored a bill called the Desert Storm and Desert Shield War Memorial Act. And we're in the process of--hopefully I'm meeting with Scott Stump in just a little while this week--I think sometime this week--to talk about how we raise funds for that. But we wanted to do that while it was still on everyone's mind and people forgot about it.    I think the question that I have, and as a scientist, and it makes a difficult when you don't know the etiology of a disease, it's very difficult. You end up treating symptoms. And they may vary. And I found that one of the great things that used to really bother me when I was in practice was, if we didn't know what was wrong with you, we either said it was a virus or you were nervous. I mean, that's basically what you're doing. And I hope we're not doing that here. I don't think so. I think good, honest people looked at the data. I think it's very, very hard to assimilate this.    And the question I have for anybody on the panel, have you looked at the oil workers who put the fires out? Have we looked at the cohorts there in Kuwait? Right now, there are people that still live in Kuwait that were there. Did they have these symptoms? Is there--are there--when we looked at the cohort who were in the service but weren't deployed versus the ones who did--now, I think the Institute of Medicine did that. I think that's the cohort they looked at. You have a built-in group of people right there in Kuwait who were there during the war in Iraq. And has anyone who served in the current conflict in Iraq, now that it's been--we've been out of there for a while, have they had any symptoms? A lot of questions.</t>
   </si>
   <si>
@@ -268,9 +238,6 @@
     <t>412214</t>
   </si>
   <si>
-    <t>Timothy J. Walz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Chairman, and I thank you all for being here. I think I'll dovetail on that, Dr. Clancy. First of all, thank you for the update on the step pain management plan. I think it's important information with the hearing that's going to be next week up in New Hampshire with Ms. Kuster that, back in 2007, this very issue was out there, and I think great strides were made, and I think you have much to add to the conversation because this is not a VA issue of opioid use and pain. It is a societal issue. So I appreciate that update.    And I think, going back to what you said, I do think you're right on that. I think much progress was made on some of these very difficult ones. Dr. Roe clearly laid out the epidemiology and the challenge of this.    My concern is, though, when do we make a decision that we've tried hard enough or that we've reached that point, because I think the frustration lies in this that I think many--something's happening, and again, we have to have the data, but there's something happening. There's enough people reporting it. All of us are hearing this, and I just wonder--you have to make tough decisions about where funding sources go and where those types of things happen. I think there's belief of many of us that this is going to be difficult, but we have a responsibility to keep going on it.    How do you make a decision--``you'' being the VA, if you can speak for that--how do you make a decision on how hard you push on a certain area or how much you do in the research?</t>
   </si>
   <si>
@@ -316,15 +283,9 @@
     <t>412429</t>
   </si>
   <si>
-    <t>Tim Huelskamp</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Huelskamp. Thank you, Mr. Chairman.    I appreciate the topic of our hearing today. I'm hearing a lot of contradictory claims and concerns and maybe a conclusion. I want to direct a couple of questions to Dr. Hunt, who I don't think has had an opportunity to participate today on the question and answer, but based on the tenor of a relatively recent presentation you gave called, ``A Model for Providing Services for Returning Combat Veterans,'' it's apparent that, and you others in the VA believe Gulf War illness is a mental disorder. Is that correct?</t>
   </si>
   <si>
-    <t>Hunt</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Hunt. That is not correct. I'm not sure where you got that information.</t>
   </si>
   <si>
@@ -373,9 +334,6 @@
     <t xml:space="preserve">    Mr. Huelskamp. Are the psychiatric drugs most effective, you believe, or what have you seen in--</t>
   </si>
   <si>
-    <t>Hunt [continued]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Hunt [continued]. I think the most effective thing is good health care, is appropriate evaluations and treatments for diagnosable conditions, getting people resources they need through service-connection. This is the first time we've given service-connection--</t>
   </si>
   <si>
@@ -460,9 +418,6 @@
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Huelskamp.    We'll have one more round if anybody else has questions. I do have two questions.    Mr. Winnett, could you join us at the table?</t>
   </si>
   <si>
-    <t>Winnett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Winnett. Sure. Can I get a bottle of water first? I just took a Vicodin. Hard to take those on a dry mouth.</t>
   </si>
   <si>
@@ -479,9 +434,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you.    Now, Mr. Binns, could you please come to the table? Mr. Binns, given VA's use of IOM reports in the manner we have discussed, are you aware of any requirements for such reports?</t>
-  </si>
-  <si>
-    <t>Binns</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Binns. Yes, I am. The Congress ordered these IOM reports, and in the law, it specified very clearly what it wanted the IOM reports to consider. It listed 33 toxic exposures, including all the ones that have been mentioned here, and it asked whether in the medical literature, there was an association between any of those toxic exposures and illness in humans or in animals.    Congress did not ask whether there was data on the individual exposure levels that troops received because it was known, at the time the law was passed, that that information was not available, but it did want to have the information on animals, because most studies of toxic substances are done in animals.    When VA contracted for these studies, however, they did not contract for considering animal studies. And the Institute of Medicine was a willing accomplice in that it removed consideration of animal studies from its standards of evidence, which it had used in the case of Agent Orange evaluations for Vietnam veterans. So the action taken was exactly the opposite of what Congress ordered, and as a result, that entire stack of reports, which you see, no IOM report has ever considered animal studies in its conclusions, and no IOM report has ever found an association between a toxic exposure and the illnesses that we're talking about today.    And I want to just clarify, because there has been a lot of discussion today about how complex this is. And, certainly, going forward, it is complex to find treatments, but well worthwhile. But what is not complex is understanding why these veterans are ill. You do not have to measure each veteran and have a monitor on them to know that.    Our report, the report of the Research Advisory Committee that was done in 2008--here it is--it researches very firm conclusions on the fact that these illnesses were caused by toxic exposures, notably the ones Dr. White mentioned, PB and pesticides. There is no dispute about that if you consider animal research. But the IOM has never considered the animal research. They talk about it, they have paragraphs on it, but when you reach the conclusions, they use a standard of evidence which excludes animal studies.    Please read my submission, and you will see that in detail that the entire IOM reports--if you read the reports, they're very clear. They're very honest. They say: We don't consider these animal studies. And we're talking about basic things here. Here's 2 pages with 23 studies of the effect of low level sarin, such as was experienced in Kamasia that was considered by the Research Advisory Committee and has never been considered by the IOM.    Dr. Cory-Slechta's report on page 139 says that she didn't consider the animal studies because they were relying on earlier IOM reports. Well, if you read the earlier IOM reports, as I indicated in my written submission, they didn't consider them either. These are the basic studies that say the toxic substances are toxic.    So the whole IOM series of Gulf War and health reports is a stack of cards, and the same dishonest standard is being applied to current veterans of Iraq and Afghanistan who have been exposed to burn pits. Once again, there is no consideration of the standard that Congress itself established.</t>
@@ -922,11 +874,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -946,13 +896,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -974,11 +922,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -998,13 +944,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1026,11 +970,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1050,13 +992,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1078,11 +1018,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1102,13 +1040,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1130,11 +1066,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1156,11 +1090,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1180,13 +1112,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1208,11 +1138,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1232,13 +1160,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1260,11 +1186,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1284,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1312,11 +1234,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1336,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1364,11 +1282,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1388,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1416,11 +1330,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1440,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1466,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1494,11 +1402,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1518,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1546,11 +1450,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1570,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
         <v>39</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1598,11 +1498,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1622,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1650,11 +1546,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1674,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1702,11 +1594,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1726,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1754,11 +1642,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1778,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1804,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" t="s">
-        <v>56</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1830,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1858,11 +1738,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1882,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1910,11 +1786,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1934,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1962,11 +1834,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1986,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2012,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>39</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2038,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2064,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2090,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2118,11 +1978,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2142,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2168,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2194,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
-      </c>
-      <c r="G51" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2220,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2246,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2272,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2298,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
-      </c>
-      <c r="G55" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2324,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2350,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
         <v>70</v>
-      </c>
-      <c r="G57" t="s">
-        <v>71</v>
-      </c>
-      <c r="H57" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2376,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2404,11 +2242,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2428,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
-      </c>
-      <c r="G60" t="s">
-        <v>84</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2454,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2480,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G62" t="s">
-        <v>84</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2506,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2532,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>83</v>
-      </c>
-      <c r="G64" t="s">
-        <v>84</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2558,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2584,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>83</v>
-      </c>
-      <c r="G66" t="s">
-        <v>84</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2610,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2636,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>83</v>
-      </c>
-      <c r="G68" t="s">
-        <v>84</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2662,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2688,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2714,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>83</v>
-      </c>
-      <c r="G71" t="s">
-        <v>84</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2740,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2768,11 +2578,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2792,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>99</v>
-      </c>
-      <c r="G74" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2818,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>102</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2844,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>99</v>
-      </c>
-      <c r="G76" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2870,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>102</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2896,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>99</v>
-      </c>
-      <c r="G78" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2922,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s">
-        <v>102</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2948,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>99</v>
-      </c>
-      <c r="G80" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2974,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>102</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3000,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>99</v>
-      </c>
-      <c r="G82" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3026,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s">
-        <v>102</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3052,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
+        <v>88</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
         <v>99</v>
-      </c>
-      <c r="G84" t="s">
-        <v>100</v>
-      </c>
-      <c r="H84" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3078,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
-        <v>102</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3104,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>99</v>
-      </c>
-      <c r="G86" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3130,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
         <v>102</v>
-      </c>
-      <c r="H87" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3156,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>99</v>
-      </c>
-      <c r="G88" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3182,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" t="s">
-        <v>102</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3208,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>99</v>
-      </c>
-      <c r="G90" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3234,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" t="s">
-        <v>119</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3260,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>99</v>
-      </c>
-      <c r="G92" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3286,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s">
-        <v>102</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3312,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>99</v>
-      </c>
-      <c r="G94" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3338,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" t="s">
-        <v>102</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3364,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>99</v>
-      </c>
-      <c r="G96" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3390,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s">
-        <v>102</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3416,13 +3176,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3442,13 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>99</v>
-      </c>
-      <c r="G99" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3468,13 +3224,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3494,13 +3248,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>99</v>
-      </c>
-      <c r="G101" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3520,13 +3272,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3546,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>99</v>
-      </c>
-      <c r="G103" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3572,13 +3320,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3598,13 +3344,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>99</v>
-      </c>
-      <c r="G105" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3624,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3650,13 +3392,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3676,13 +3416,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>99</v>
-      </c>
-      <c r="G108" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3702,13 +3440,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3728,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>99</v>
-      </c>
-      <c r="G110" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3754,13 +3488,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3780,13 +3512,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>99</v>
-      </c>
-      <c r="G112" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3806,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3832,13 +3560,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3858,13 +3584,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>99</v>
-      </c>
-      <c r="G115" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3884,13 +3608,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3910,13 +3632,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>99</v>
-      </c>
-      <c r="G117" t="s">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3938,11 +3658,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3962,13 +3680,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" t="s">
-        <v>148</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3990,11 +3706,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4014,13 +3728,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" t="s">
-        <v>148</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4042,11 +3754,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4066,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" t="s">
-        <v>148</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4094,11 +3802,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4118,13 +3824,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" t="s">
-        <v>155</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4146,11 +3850,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4170,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4196,13 +3896,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4222,13 +3920,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4248,13 +3944,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4274,13 +3968,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4300,13 +3992,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4326,13 +4016,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" t="s">
-        <v>102</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4352,13 +4040,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4378,13 +4064,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>22</v>
-      </c>
-      <c r="G135" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4404,13 +4088,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" t="s">
-        <v>102</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4430,13 +4112,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4456,13 +4136,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4484,11 +4162,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg25103.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25103.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412271</t>
   </si>
   <si>
+    <t>Coffman</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Coffman. Good afternoon. This hearing will come to order. I want to welcome everybody to today's hearing entitled ``Persian Gulf War: An Assessment of Health Outcomes on the 25th Anniversary.''    First, as a preliminary matter, I would like to ask unanimous consent that--let's see. Who do we have? Oh, I guess they're not here. I don't have to do that.</t>
   </si>
   <si>
     <t>412557</t>
   </si>
   <si>
+    <t>Kuster</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kuster. The answer is yes.</t>
   </si>
   <si>
@@ -79,6 +94,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Denham</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Denham. I get my own card.</t>
   </si>
   <si>
@@ -88,30 +106,45 @@
     <t xml:space="preserve">    Mr. Coffman. Very well. Sit down. Please be seated. And let the record reflect that all witnesses have answered in the affirmative.    Dr. Clancy, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Clancy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Clancy. Thank you. Good afternoon, Chairman Coffman, Ranking Member Kuster, Members of the Subcommittee, Representative Denham. I'm accompanied today by Dr. Stephen Hunt, director of our Post-Deployment Integrated Care Initiative. As Deputy Under Secretary for Organizational Excellence and an internist, my background has been conducting and supporting research to improve patient care and inform public policy for much of my career. So I know how important it is to get the science right and assure you that VA is taking every step possible to advance research, clinical care, and education on Gulf War illness.    Since our last hearing in 2013, VA has funded or conducted over 60 studies. Funding for Gulf War research has increased steadily from $5.6 million in 2011 to over $14 million this year. And that's a very conservative estimate. For example, a study funded this past June is a randomized trial of something called CoQ10 thought to change subcellular function in a way that could help treat the effects of Gulf War illness. Other studies evaluate the effectiveness of a broad range of treatments for musculoskeletal pain, fatigue, and cognitive issues using exercise programs, magnetic stimulation, and other innovative approaches. So, as we look for promising interventions through research, VA is also working diligently to treat these veterans that are now suffering from Gulf War illness.    From 2000 to 2015 the percentage of Gulf War veterans enrolled in our system has increased from 13 percent to about 33 percent. We offer continuing evaluation and treatment to the over 700,000 men and women who served in Operations Desert Shield and Desert Storm. We have centers of excellence, three of them, called War Related Injury and Illness Study Centers, or WRIISCs--and we want to express our appreciation to the Congress for these--which are charged with conducting cutting-edge research, clinical education, and providing specialized care for Gulf War veterans with complex chronic unexplained or very difficult-to-diagnosis conditions. And demand for their services is no surprise; as the number of Gulf War veterans has increased, demand for these services has also increased.    In addition, a total of 145,000 Gulf War veterans have undergone a Gulf War registry exam allowing their health concerns to be evaluated by VA physicians and enabling them to be referred for additional care. We first learned from Gulf War veterans just how important it is to integrate all the care and services that veterans need, and to integrate and organize that around the veteran and the veteran's needs. And, in fact, that became an organizing principle for much of our system and team-based primary care. And, in fact, that has helped us to organize our referrals to community providers when necessary as well.    We know that many Gulf War veterans are affected by a debilitating cluster of medically unexplained chronic symptoms that can include fatigue, headaches, joint pain, indigestion, insomnia, dizziness, respiratory disease, memory problems. And the chronic multisymptom illness we see so often in Gulf War veterans is clearly not a psychological condition. So I want to be very clear on that. We're committed to ensuring our research, clinical care, and education takes into account all of the factors that are relevant to returning that veteran to the highest level of function. We have aggressively pursued and fast-tracked studies in ways we can meet the research and treatment needs for all veterans that have been affected by environmental exposures. So that research serves two purposes. One is to improve clinical care that we're providing now for those enrolled in our system. And the other is as the basis for presumptions or other benefits. Our philosophy has been to come down on the side of the veteran when the science supports it. And, as you've seen, we have made our policies more liberal for C123 crews and are now adding new presumptives for veterans who served at Camp Lejeune. In addition, we've been working with Ron Brown at the National Gulf War Resource Center to address a number of concerns and possible presumptions for Gulf War veterans.    Going forward, we recognize that while we've learned a lot, we need and value the ongoing feedback and input from our stakeholders, this committee of course, the Research Advisory Committee, the Veterans Service Organizations, and, very importantly, Gulf War veterans themselves.    As we conduct an in-depth review of the most recent Institute of Medicine report, we're going to include 2 full days to receive public comments and feedback from our stakeholders and partners to assure that VA's priorities are informed by veterans and stakeholders.    You know, vigorous disagreements in science are part of the landscape, and we welcome that at all times. That's what moves science forward. And we're committed to hearing from all sides.    That concludes my testimony. My colleague and I look forward to answering your questions that you or the Committee may have.    [The prepared statement of Carolyn Clancy, M.D. appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Dr. Clancy.    Dr. Cory-Slechta, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Cory-Slechta</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Cory-Slechta. Good afternoon. Is this on?    I am Deborah Cory-Slechta, professor of environmental medicine, pediatrics, and public health sciences, and acting chair of the Department of Environmental Medicine at the University of Rochester School of Medicine. I served as chair of the ``Committee on Gulf War and Health, Volume 10,'' which was released February 11 of this year. The committee that I was chaired was asked to review and evaluate the scientific and medical literature regarding associations between illness and exposure to toxic agents, environmental or wartime hazards, or preventative medicines or vaccines associated with Gulf War service, paying particular attention to neurological disorders, including Parkinson's, MS, ALS, and migraines, to cancer, particularly brain cancer and lung cancer, and chronic multisymptom illness, also known as Gulf War illness. Volume 10 updates two earlier Gulf War and Health reports: volume 4, in 2006, and volume 8, that was published in 2010.    The committee made recommendations for future research on Gulf War veterans. And I would note that this committee was composed of experts in neurology, epidemiology, pain, psychiatry, neurocognitive disorders, environmental health, and toxicology. And they were clinicians and researchers, none of whom received funding from Gulf War illness research programs.    Volume 10 basically followed the approach used by earlier committees. We held two public sessions at which we heard from representatives of the VA, from Gulf War veterans, and Veterans Service Organizations, Gulf War researchers, and representatives of the VA Research Advisory Committee. We did not address policy issues such as service-connection, compensation or the cause of or treatment for Gulf War illness. We conducted an extensive literature search, reviewed the volumes 4 and 8 conclusions, as well as their primary and secondary studies. We also looked at animal toxicology, neuroimaging, and genetics. We tried to be totally inclusive. We divided our studies into primary studies. They had to be published in peer-reviewed journals demanding--or demonstrating reporting rigorous methods, including information on a persistent, not acute, health outcomes, used appropriate laboratory testing as applicable, and had a study population that was generalizable to and representative of the Gulf War population.    Secondary studies were those studies that didn't meet all of these criteria. Many of the secondary studies relied on self-reports of diagnoses rather than examination by a health professional or a medical record review. We used the same categories of association that were used in the previous volumes. I won't go through all those. Suffice it to say, we have a sufficient evidence of a causal relationship, sufficient evidence of an association, limited suggestive evidence of an association, inadequate insufficient evidence or limited suggestive evidence of no association.    The committee found that in spite of many millions of dollars that have been spent on researching the health of Gulf War veterans, there has been little substantial progress in our understanding of their health, particularly of Gulf War illness. The volume 10 committee found little evidence to actually warrant changes to the volume 8 conclusions. We fundamentally agree with the volume 8 conclusions regarding the strength of the associations between deployment to the Gulf War and adverse health outcomes. Veterans who were deployed to the Gulf War have an increased risk for many long-term health conditions with--including PTSD, Gulf War illness, chronic fatigue syndrome, functional GI conditions, generalized anxiety disorder, depression, and substance abuse. And in the testimony that I've provided you, you can see our categories of association with different health effects summarized in box 1.    As requested in its statement of tasks, the committee had additional discussions pertaining to Gulf War illness, specifically neurologic conditions, and lung and brain cancer, as well as Gulf War illness itself. So Gulf War illness, of course, is the signature adverse health outcome of having served in the Persian Gulf. Multiple studies have found that some Gulf War veterans, regardless of their country of origin and their different deployment-related exposures, have persistent debilitating and varying symptoms of Gulf War illness. In spite of over two decades of research to define, diagnose, and treat Gulf War illness, little progress has actually been made in elucidating the pathophysiological mechanisms that underlie it, the exposures that may have caused it, or the treatments that are generally effective for it.    Gulf War illness is not an easily diagnosed condition. The committee concluded it is not a psychosomatic illness, but it does, like almost every disease and disorder that we know of, prevent--present with diverse systems, many of which overlap with other health conditions such as chronic fatigue, neurodegenerative disorders, and musculoskeletal.    The committee concluded that, although the existence of an animal model would be advantageous for identifying and evaluating treatment strategies, we caution that developing an animal model is really precluded by the absence of any objective measures of chemical and nonchemical exposures during Gulf War service, let alone the frequency, duration, or dose of those exposures, or the highly likely interactive effects of multiple exposures, about which we know almost nothing. We found it unlikely that a single definitive causal agent will be identified in the many years--this many years after the war. Furthermore, many of the Gulf War studies have excluded the psychological aspects of the condition with regard to both diagnosis and treatment, although veterans report symptoms, such as chronic pain and sleep disturbances, that may be amenable to psychological therapies alone or in conjunction with other treatments.    We found new--little new information pertaining to MS, Parkinson's, or Alzheimer's disease, or migraines. We did recommend that ALS is the only neurologic disease for which we did find limited suggestive evidence for an association. But because the timeframe has been too short to really look at this, we recommended additional followup for prevalence of ALS in this population.    Similarly, we found evidence for brain cancer to be inadequate, insufficient, and it found--we found no statistically significant increase in the current risk of brain concern in deployed Gulf War veterans compared to nondeployed counterparts. A finding that's actually mirrored in another recent IOM study.    With regard to lung cancer, there--in the 10 to 15 years follow-up that have been reported may not, again, like ALS, have been adequate--an adequate timeframe to really see whether in fact--</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Dr. Slechta, I'm going to have to ask you to move along, simply because you're at 7 minutes right now.</t>
   </si>
   <si>
+    <t>Cory-Slechta [continued]</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Cory-Slechta [continued]. Sorry. Okay.    In conclusion, what is striking about this and prior Gulf War and Health Committee's finding is that--well, I'll just skip to the end.    Let me just quickly go through these.    Recognize the connections and complex relations between brain and physical functioning and do not exclude any aspect of Gulf War illness. With respect to improving its diagnosis and treatment, the Department of Veterans Affairs and Department of Defense should develop a joint and cohesive strategy on incorporating emerging diagnostic technologies, personalized approaches to medical care into sufficiently powered future research to inform the studies. I would also say, in regards to what I heard before, the importance of biomonitoring of exposures before, during, and after military--the involvement in the military is going to be critical to ultimately providing any associations to chemical exposures. There need to be follow-up for neurodegenerative diseases that have long latencies and are associated with aging, as I mentioned before. And let's see. Without definitive and verifiable individual veteran exposure information, further studies to determine cause and effect relationship between Gulf War chemical exposures and health conditions in Gulf War veterans should not be undertaken. We did come up with a list of outcomes where we believe that there are sufficient data already to suggest an association, that we don't need to do more studies to redemonstrate those, somewhere, 25 years after the war, we're not likely to see anything, and so some of those kinds of health conditions didn't warrant follow-up, as well as some that we said had a longer latency and still needed to be considered.    And, finally, one other thing was to begin to break out sex-specific and race/ethnicity-specific health information, which may be important not only to understanding different vulnerabilities by sex and race but also in terms of understanding mechanisms and treatment for disease.    Thank you. And I'm sorry for going over time.    [The prepared statement of Deborah Cory-Slechta appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Dr. Slechta.    Dr. White, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>White</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. White. Chairman Coffman, Ranking Member Kuster, and Members of the House Veterans Affairs Subcommittee on Oversight and Investigations, it's the 25th anniversary of the Gulf War. Our veterans won this conflict in less than a week. However, concern remains high that the troops who produced this victory are and will remain ill without legitimate acknowledgement of their health problems and associated disabilities and without effective treatment options now or in the future.    Despite decades of scientific evidence to the contrary, the VA and the Institute of Medicine have recently produced documents that minimize the poor health of these veterans by terming their illnesses to be functional, a medical term for psychiatric illness. This injustice is then compounded by a VA treatment guideline that suggests ineffective, unproven, palliative, and potentially harmful treatments for Gulf War illness that focus on psychiatric symptomatology. I speak as a clinician scientist who has worked with ill Gulf War veterans clinically and in research for over 20 years. My work on Gulf War illness is part of a 35-year career in which I have studied the effects of exposures to neurotoxic chemicals in adults and children. For 8 years, until last fall, I served as scientific director of the Research Advisory Committee on Gulf War Veterans' Illnesses. It has been known since a year or two after their return from the Gulf that a subset of Gulf War veterans was experiencing debilitating physical illness. Research beginning at that time and continuing to the present has produced a consensus of scientific knowledge about this illness that I will summarize briefly.    First, dozens of studies in multiple countries reveal that approximately 30 percent of the 1991 Gulf War veteran population suffers from a characteristic pattern of physical health symptoms that we call Gulf War illness. This pattern of health symptoms is not seen in veterans of other conflicts.    Second, this illness is not the result of stress or other psychiatric factors. Rates of post-traumatic stress disorder are typically less than 10 percent. Furthermore, rates of Gulf War illness are not significantly higher in Gulf War veterans with psychiatric diagnoses.    Third, Gulf War illness is associated with exposures to chemicals present in theatre, especially pesticides and pyridostigmine bromide, and possibly nerve gas sarin and particulates from the oil well fires.    Fourth, effective treatments for Gulf War illness and other disorders that are induced by chemical exposures that damage the brain do not exist at present. However, recent research has identified treatment options that target specific nervous system and immunological mechanisms of Gulf War illness. These treatments are now being piloted. Despite these treatment advances, new recommendations for treatment of Gulf War illness from VA emphasize immediate referral for mental health evaluation. In addition, cognitive behavioral therapy is suggested. This is a palliative treatment at best and has been shown to be minimally effective in VA research on Gulf War veterans.    Even worse, the treatment guidelines recommend 11 drugs to treat Gulf War illness, 10 of them psychiatric. All 11 drugs are noted in the guidelines to have significant adverse side effects, including suicidal ideation. And these medications have not been studied with regard to their effectiveness in the treatment of Gulf War illness. The recent volume 10 Institute of Medicine report further contributes to this situation by minimizing the health problems of Gulf War veterans and again placing a psychiatric cast on them. Although the volume 10 IOM report states that the science has not changed since the volume 8 report, its conclusions fly in the face of the scientific consensus on Gulf War illness that I have described. The volume 8 report concluded that Gulf War illness cannot be reliably ascribed to any known psychiatric disorder. The volume 10 report distorts and disavows this conclusion by saying that the illness cannot be fully explained by any psychiatric disorder. Unlike prior reports that support mechanistic scientific research on Gulf War illness, volume 10 suggests that it is time research efforts focus on mind/body connectedness, and that further research to determine the relationships between Gulf War exposures and health conditions in Gulf War veterans should not be undertaken. To recommend stopping research into the mechanisms underlying the disease just as research into these mechanisms has begun to make real progress is shockingly shortsighted. And to suggest that psychiatric research has been neglected could not be further from the truth.    During the first 15 years after the war, Federal Gulf War research focused mainly on psychiatric issues with negative results. It is unthinkable that the scientific progress now being made should be halted by a return to the psychogenic era.    Thank you.    [The prepared statement of Roberta F. White appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Dr. White.    Mr. Hardie, you're now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Hardie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hardie. Thank you, Mr. Chairman, and Ranking Member and Members of this Committee for your service, for this hearing, and for the opportunity to speak with you today.    This is just a brief overview. There are more details in my written submission. I really hope that you'll take the time to read the few pages of it.    I'm Anthony Hardie, a 1991 Gulf War and Somalia veteran. I'm director of the Veterans for Common Sense, and while I've provided testimony on several occasions, today is especially notable. Exactly 25 years ago tonight, we launched the ground war of Operation Desert Storm and successfully liberated Kuwait. Tonight, I would like to--for us to remember and honor the nearly 300 warriors who made the ultimate sacrifice. I would also like us to remember and honor our Gulf War veterans, including those in this room and watching, and our leaders who led us to decisive military victory.    Our war was relatively short, but you've heard our stories before. And with one-fourth and one-third of us coming home with serious and debilitating health issues now known as Gulf War illness, we faced a new battle: a long war to obtain health care, effective health care, and VA assistance from entrenched government officials who seemed intent on minimization and denial at every turn. Even through to today, the VA describes our toxic wounds as medically unexplained. And, finally, in 1998, we won enactment of two landmark bills for Gulf War veterans to guarantee health care and benefits based on research. Yet from the beginning, VA officials circumvented their implementation that leads us to today.    The Institute of Medicine recently released its final report on the Gulf War and Health series under VA contract as directed by the 1998 legislation. It's highly problematic. As I walked through the airport on my way home from the report's release, the weight of the bag with nearly two decades of these IOM reports was heavy on my shoulder. And I want to show that weight.    My heart was even heavier because their collective weight has added little to nothing for Gulf War veterans. It has not associated any of our exposures with our health issues, and has added little towards the development of effective evidence-based treatments for Gulf War illness. The real weight is being borne by Gulf War illness--Gulf War veterans who are suffering from Gulf War illness. This new report recommends no further research using animal models of Gulf War toxic exposures, which amounts to rolling up the sidewalk on this promising avenue of Gulf War illness research just when it's beginning to unravel the underlying mechanisms of Gulf War illness and point to treatment targets. And these new--and this now affects not just non-VA CDMRP research, but VA research as well. In one section, it points out that the VA hasn't reported critical data, but in other, recommends ending research on a long list of health conditions, despite long histories of them in Gulf War veterans not reported by VA. While acknowledging Gulf War illness is a 1991 Gulf War signature condition, there were no Gulf War illness researchers on this panel. It recommends a shift to brain/body interconnectedness that departs from the scientific opinion that effective treatments, cures, and--it is hoped--preventions can likely be found. Instead, this is more like the 1990s, when VA and DoD officials, some of whom are involved in writing this report, denied Gulf War veterans toxic exposures, denied benefits, and failed to develop treatments or preventions. And now VA and DoD have developed a clinical practice guideline that goes back to the very darkest days of the 1990s, authored by some of these same old names and ideas.    Despite VA public statements to the contrary, including to this Committee, this guide for VA and DoD doctors is filled with references to psychosomatic and somatoform disorders; 52 times, to be exact. Its primary recommendations for Gulf War illness are cognitive behavioral therapy or talk therapy, exercise, and psychotropic drugs. Suicidal ideation is listed in the guide as a notable adverse effect for every single one of those medications at a time when we have a suicide crisis amongst veterans. VA has active Gulf War veteran studies on CBT and exercise, but somehow still recommends them as evidence-based in this definitive guide. Twenty-five years after our war, VA has circumvented most of the aims of the 1998 laws intended to help us. In addition to the above, VA lost its registry--lost its registry--for Gulf War spouses and children; ignored and then gutted the Gulf War Research Advisory committee; misleads Congress in its reports to Congress; found no link between Gulf War exposures in Congress, including in these manuals; identified almost no new presumptives. If we measure VA's success by how it's improved Gulf War veterans health 25 years after the war, VA still has not a single evidence-based treatment for Gulf War illness. Others among us have died of ALS, brain cancer, and suicide. And only since the Congressionally Directed Medical Research Program was enacted through the support of many on this committee has VA even begun to look at developing treatments. And while there is real research progress, most of it is being made outside of and in spite of VA in the CDMRP, thanks to many of your support. Twenty-five years later, one-fourth to one-third of us Gulf War veterans continue to struggle with the health and life effects of Gulf War illness. We must not allow--we must not continue to allow VA and DoD to substitute risk communication for evidence-based health care, psychosomatic drugs for treatment-focused research, spin for substance, or don't look/don't find for the objective collection analysis and reporting of deployment health outcomes. The letter, the spirit, and the intent of the 1998 Persian Gulf War laws that we fought so hard to win have yet to be achieved.    And, again, this is just a brief overview. On this 25th anniversary of the Gulf War, our Gulf War veterans deserve the very best that modern science and the U.S. Government can offer to improve their health and lives.    Mr. Chairman, as one of our Gulf War veterans and Members of this powerful Committee, please join together and with your colleagues on both sides of the aisle and in both Houses and help fix these serious issues once and for all. My fellow Gulf War veteran David Winnett and I look forward to your questions. Thank you, again, for this opportunity.    [The prepared statement of Anthony Hardie appears in the Appendix]</t>
   </si>
   <si>
@@ -160,6 +193,9 @@
     <t xml:space="preserve">    Mr. Hardie. So, sir, it was an anti-nerve-agent prophylactic--</t>
   </si>
   <si>
+    <t>Coffman [continued]</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Coffman [continued]. Nerve agent. Okay.</t>
   </si>
   <si>
@@ -202,6 +238,12 @@
     <t>412310</t>
   </si>
   <si>
+    <t>Roe</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Roe. Thank you, Mr. Chairman. And for the group here, I don't know whether you know or not, but I've sponsored a bill called the Desert Storm and Desert Shield War Memorial Act. And we're in the process of--hopefully I'm meeting with Scott Stump in just a little while this week--I think sometime this week--to talk about how we raise funds for that. But we wanted to do that while it was still on everyone's mind and people forgot about it.    I think the question that I have, and as a scientist, and it makes a difficult when you don't know the etiology of a disease, it's very difficult. You end up treating symptoms. And they may vary. And I found that one of the great things that used to really bother me when I was in practice was, if we didn't know what was wrong with you, we either said it was a virus or you were nervous. I mean, that's basically what you're doing. And I hope we're not doing that here. I don't think so. I think good, honest people looked at the data. I think it's very, very hard to assimilate this.    And the question I have for anybody on the panel, have you looked at the oil workers who put the fires out? Have we looked at the cohorts there in Kuwait? Right now, there are people that still live in Kuwait that were there. Did they have these symptoms? Is there--are there--when we looked at the cohort who were in the service but weren't deployed versus the ones who did--now, I think the Institute of Medicine did that. I think that's the cohort they looked at. You have a built-in group of people right there in Kuwait who were there during the war in Iraq. And has anyone who served in the current conflict in Iraq, now that it's been--we've been out of there for a while, have they had any symptoms? A lot of questions.</t>
   </si>
   <si>
@@ -238,6 +280,12 @@
     <t>412214</t>
   </si>
   <si>
+    <t>Walz</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Chairman, and I thank you all for being here. I think I'll dovetail on that, Dr. Clancy. First of all, thank you for the update on the step pain management plan. I think it's important information with the hearing that's going to be next week up in New Hampshire with Ms. Kuster that, back in 2007, this very issue was out there, and I think great strides were made, and I think you have much to add to the conversation because this is not a VA issue of opioid use and pain. It is a societal issue. So I appreciate that update.    And I think, going back to what you said, I do think you're right on that. I think much progress was made on some of these very difficult ones. Dr. Roe clearly laid out the epidemiology and the challenge of this.    My concern is, though, when do we make a decision that we've tried hard enough or that we've reached that point, because I think the frustration lies in this that I think many--something's happening, and again, we have to have the data, but there's something happening. There's enough people reporting it. All of us are hearing this, and I just wonder--you have to make tough decisions about where funding sources go and where those types of things happen. I think there's belief of many of us that this is going to be difficult, but we have a responsibility to keep going on it.    How do you make a decision--``you'' being the VA, if you can speak for that--how do you make a decision on how hard you push on a certain area or how much you do in the research?</t>
   </si>
   <si>
@@ -283,9 +331,18 @@
     <t>412429</t>
   </si>
   <si>
+    <t>Huelskamp</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Huelskamp. Thank you, Mr. Chairman.    I appreciate the topic of our hearing today. I'm hearing a lot of contradictory claims and concerns and maybe a conclusion. I want to direct a couple of questions to Dr. Hunt, who I don't think has had an opportunity to participate today on the question and answer, but based on the tenor of a relatively recent presentation you gave called, ``A Model for Providing Services for Returning Combat Veterans,'' it's apparent that, and you others in the VA believe Gulf War illness is a mental disorder. Is that correct?</t>
   </si>
   <si>
+    <t>Hunt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Hunt. That is not correct. I'm not sure where you got that information.</t>
   </si>
   <si>
@@ -334,6 +391,9 @@
     <t xml:space="preserve">    Mr. Huelskamp. Are the psychiatric drugs most effective, you believe, or what have you seen in--</t>
   </si>
   <si>
+    <t>Hunt [continued]</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Hunt [continued]. I think the most effective thing is good health care, is appropriate evaluations and treatments for diagnosable conditions, getting people resources they need through service-connection. This is the first time we've given service-connection--</t>
   </si>
   <si>
@@ -418,6 +478,9 @@
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Huelskamp.    We'll have one more round if anybody else has questions. I do have two questions.    Mr. Winnett, could you join us at the table?</t>
   </si>
   <si>
+    <t>Winnett</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Winnett. Sure. Can I get a bottle of water first? I just took a Vicodin. Hard to take those on a dry mouth.</t>
   </si>
   <si>
@@ -434,6 +497,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you.    Now, Mr. Binns, could you please come to the table? Mr. Binns, given VA's use of IOM reports in the manner we have discussed, are you aware of any requirements for such reports?</t>
+  </si>
+  <si>
+    <t>Binns</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Binns. Yes, I am. The Congress ordered these IOM reports, and in the law, it specified very clearly what it wanted the IOM reports to consider. It listed 33 toxic exposures, including all the ones that have been mentioned here, and it asked whether in the medical literature, there was an association between any of those toxic exposures and illness in humans or in animals.    Congress did not ask whether there was data on the individual exposure levels that troops received because it was known, at the time the law was passed, that that information was not available, but it did want to have the information on animals, because most studies of toxic substances are done in animals.    When VA contracted for these studies, however, they did not contract for considering animal studies. And the Institute of Medicine was a willing accomplice in that it removed consideration of animal studies from its standards of evidence, which it had used in the case of Agent Orange evaluations for Vietnam veterans. So the action taken was exactly the opposite of what Congress ordered, and as a result, that entire stack of reports, which you see, no IOM report has ever considered animal studies in its conclusions, and no IOM report has ever found an association between a toxic exposure and the illnesses that we're talking about today.    And I want to just clarify, because there has been a lot of discussion today about how complex this is. And, certainly, going forward, it is complex to find treatments, but well worthwhile. But what is not complex is understanding why these veterans are ill. You do not have to measure each veteran and have a monitor on them to know that.    Our report, the report of the Research Advisory Committee that was done in 2008--here it is--it researches very firm conclusions on the fact that these illnesses were caused by toxic exposures, notably the ones Dr. White mentioned, PB and pesticides. There is no dispute about that if you consider animal research. But the IOM has never considered the animal research. They talk about it, they have paragraphs on it, but when you reach the conclusions, they use a standard of evidence which excludes animal studies.    Please read my submission, and you will see that in detail that the entire IOM reports--if you read the reports, they're very clear. They're very honest. They say: We don't consider these animal studies. And we're talking about basic things here. Here's 2 pages with 23 studies of the effect of low level sarin, such as was experienced in Kamasia that was considered by the Research Advisory Committee and has never been considered by the IOM.    Dr. Cory-Slechta's report on page 139 says that she didn't consider the animal studies because they were relying on earlier IOM reports. Well, if you read the earlier IOM reports, as I indicated in my written submission, they didn't consider them either. These are the basic studies that say the toxic substances are toxic.    So the whole IOM series of Gulf War and health reports is a stack of cards, and the same dishonest standard is being applied to current veterans of Iraq and Afghanistan who have been exposed to burn pits. Once again, there is no consideration of the standard that Congress itself established.</t>
@@ -824,7 +890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -832,7 +898,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,3317 +920,3880 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G49" t="s">
+        <v>74</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G51" t="s">
+        <v>74</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G55" t="s">
+        <v>74</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G60" t="s">
+        <v>88</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G62" t="s">
+        <v>88</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G64" t="s">
+        <v>88</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>73</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G66" t="s">
+        <v>88</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>73</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G68" t="s">
+        <v>88</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G69" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>73</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G71" t="s">
+        <v>88</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G74" t="s">
+        <v>105</v>
+      </c>
       <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I74" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s">
+        <v>108</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G76" t="s">
+        <v>105</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s">
+        <v>108</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G78" t="s">
+        <v>105</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s">
+        <v>108</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G80" t="s">
+        <v>105</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G81" t="s">
+        <v>108</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>88</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G82" t="s">
+        <v>105</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G83" t="s">
+        <v>108</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>88</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G84" t="s">
+        <v>105</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s">
+        <v>108</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>88</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G86" t="s">
+        <v>105</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s">
+        <v>108</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>88</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G88" t="s">
+        <v>105</v>
+      </c>
       <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G89" t="s">
+        <v>108</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>88</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G90" t="s">
+        <v>105</v>
+      </c>
       <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G91" t="s">
+        <v>125</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>88</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G92" t="s">
+        <v>105</v>
+      </c>
       <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
+        <v>25</v>
+      </c>
+      <c r="G93" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>88</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G94" t="s">
+        <v>105</v>
+      </c>
       <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G95" t="s">
+        <v>108</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>88</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G96" t="s">
+        <v>105</v>
+      </c>
       <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G97" t="s">
+        <v>108</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G98" t="s">
+        <v>33</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>88</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G99" t="s">
+        <v>105</v>
+      </c>
       <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G100" t="s">
+        <v>33</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>88</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G101" t="s">
+        <v>105</v>
+      </c>
       <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G102" t="s">
+        <v>33</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>88</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G103" t="s">
+        <v>105</v>
+      </c>
       <c r="H103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G104" t="s">
+        <v>33</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>88</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G105" t="s">
+        <v>105</v>
+      </c>
       <c r="H105" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G106" t="s">
+        <v>33</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G107" t="s">
+        <v>33</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>88</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G108" t="s">
+        <v>105</v>
+      </c>
       <c r="H108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G109" t="s">
+        <v>33</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>88</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G110" t="s">
+        <v>105</v>
+      </c>
       <c r="H110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G111" t="s">
+        <v>33</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>88</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G112" t="s">
+        <v>105</v>
+      </c>
       <c r="H112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G113" t="s">
+        <v>33</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G114" t="s">
+        <v>33</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>88</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G115" t="s">
+        <v>105</v>
+      </c>
       <c r="H115" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G116" t="s">
+        <v>33</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>88</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G117" t="s">
+        <v>105</v>
+      </c>
       <c r="H117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G119" t="s">
+        <v>154</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G121" t="s">
+        <v>154</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
       <c r="H122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G123" t="s">
+        <v>154</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
       <c r="H124" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G125" t="s">
+        <v>161</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>17</v>
+      </c>
       <c r="H127" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G128" t="s">
+        <v>30</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
       <c r="H129" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I129" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G130" t="s">
+        <v>30</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G131" t="s">
+        <v>17</v>
+      </c>
       <c r="H131" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G132" t="s">
+        <v>30</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G133" t="s">
+        <v>108</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
       <c r="H134" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I134" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G135" t="s">
+        <v>30</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G136" t="s">
+        <v>108</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>17</v>
+      </c>
       <c r="H137" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I137" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>17</v>
+      </c>
       <c r="H138" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I138" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
       <c r="H139" t="s">
-        <v>153</v>
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg25103.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg25103.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412271</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Coffman</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412557</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Kuster</t>
   </si>
   <si>
@@ -236,6 +245,9 @@
   </si>
   <si>
     <t>412310</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Roe</t>
@@ -890,7 +902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,7 +910,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,3877 +935,4164 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s">
-        <v>42</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" t="s">
-        <v>59</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" t="s">
-        <v>42</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" t="s">
-        <v>42</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" t="s">
-        <v>39</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" t="s">
-        <v>39</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" t="s">
-        <v>39</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" t="s">
-        <v>39</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" t="s">
-        <v>30</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G60" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" t="s">
-        <v>30</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G62" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" t="s">
-        <v>30</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G66" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G68" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" t="s">
-        <v>30</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
-      </c>
-      <c r="G70" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G71" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" t="s">
-        <v>30</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G74" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H74" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" t="s">
-        <v>108</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>112</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G76" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H76" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I76" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>25</v>
-      </c>
-      <c r="G77" t="s">
-        <v>108</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>112</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G78" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H78" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>25</v>
-      </c>
-      <c r="G79" t="s">
-        <v>108</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>112</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G80" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
-      </c>
-      <c r="G81" t="s">
-        <v>108</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>112</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G82" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I82" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>25</v>
-      </c>
-      <c r="G83" t="s">
-        <v>108</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>112</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G84" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" t="s">
-        <v>108</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>112</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G86" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I86" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>25</v>
-      </c>
-      <c r="G87" t="s">
-        <v>108</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>112</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G88" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H88" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" t="s">
-        <v>108</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>112</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G90" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H90" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I90" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>25</v>
-      </c>
-      <c r="G91" t="s">
-        <v>125</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>129</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G92" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H92" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>25</v>
-      </c>
-      <c r="G93" t="s">
-        <v>108</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>112</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G94" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H94" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I94" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>25</v>
-      </c>
-      <c r="G95" t="s">
-        <v>108</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>112</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G96" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H96" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I96" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" t="s">
-        <v>108</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>112</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
-      </c>
-      <c r="G98" t="s">
-        <v>33</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>36</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G99" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H99" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I99" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J99" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" t="s">
-        <v>33</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>36</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G101" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H101" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I101" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>25</v>
-      </c>
-      <c r="G102" t="s">
-        <v>33</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>36</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G103" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H103" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I103" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J103" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
-      </c>
-      <c r="G104" t="s">
-        <v>33</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>36</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G105" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H105" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I105" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>25</v>
-      </c>
-      <c r="G106" t="s">
-        <v>33</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>36</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" t="s">
-        <v>33</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>36</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G108" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H108" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I108" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J108" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>25</v>
-      </c>
-      <c r="G109" t="s">
-        <v>33</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>36</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G110" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H110" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I110" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J110" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>25</v>
-      </c>
-      <c r="G111" t="s">
-        <v>33</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>36</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G112" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H112" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I112" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>25</v>
-      </c>
-      <c r="G113" t="s">
-        <v>33</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>36</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>25</v>
-      </c>
-      <c r="G114" t="s">
-        <v>33</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>36</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G115" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H115" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I115" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J115" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G116" t="s">
-        <v>33</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>36</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G117" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="H117" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I117" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J117" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>25</v>
-      </c>
-      <c r="G119" t="s">
-        <v>154</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>158</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>25</v>
-      </c>
-      <c r="G121" t="s">
-        <v>154</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>158</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>25</v>
-      </c>
-      <c r="G123" t="s">
-        <v>154</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>158</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>25</v>
-      </c>
-      <c r="G125" t="s">
-        <v>161</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>165</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G127" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H127" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I127" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J127" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>25</v>
-      </c>
-      <c r="G128" t="s">
-        <v>30</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>33</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G129" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H129" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I129" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J129" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>25</v>
-      </c>
-      <c r="G130" t="s">
-        <v>30</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>33</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G131" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H131" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I131" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>25</v>
-      </c>
-      <c r="G132" t="s">
-        <v>30</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>33</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>25</v>
-      </c>
-      <c r="G133" t="s">
-        <v>108</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>112</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G134" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H134" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I134" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J134" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>25</v>
-      </c>
-      <c r="G135" t="s">
-        <v>30</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>33</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>25</v>
-      </c>
-      <c r="G136" t="s">
-        <v>108</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>112</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G137" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H137" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I137" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J137" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G138" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H138" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I138" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J138" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>175</v>
+        <v>16</v>
+      </c>
+      <c r="J139" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
